--- a/global/Condition.xlsx
+++ b/global/Condition.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FC2A5-6448-4F12-85A1-CB1010725D6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -65,8 +71,14 @@
 1: 只需达成一个条件</t>
   </si>
   <si>
-    <t>0: 队伍等级达到**级
-1: vip等级达到**级</t>
+    <t>0:队伍等级达到**级
+1:击杀所有敌方单位
+2:己方单位全部死亡
+3:己方单位死亡人数小于*
+4:成功打断*次敌方技能
+5:己方单位成功使用*次奥义技能
+6:通关时间小于*秒
+7:优先击杀id为*的敌方单位</t>
   </si>
   <si>
     <t>此列由前4列自动生成，不用填写</t>
@@ -108,14 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +134,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -136,12 +151,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,158 +168,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +202,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,194 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -622,7 +309,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -644,251 +331,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -925,19 +370,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,89 +391,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:N8" totalsRowShown="0">
-  <autoFilter ref="C1:N8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:N9" totalsRowShown="0">
+  <autoFilter ref="C1:N9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="限制条件id"/>
-    <tableColumn id="2" name="条件类型"/>
-    <tableColumn id="3" name="解锁子条件类型1"/>
-    <tableColumn id="4" name="解锁子条件类型2"/>
-    <tableColumn id="5" name="解锁子条件类型3"/>
-    <tableColumn id="6" name="解锁子条件类型4"/>
-    <tableColumn id="7" name="解锁子条件类型"/>
-    <tableColumn id="8" name="解锁子条件数值1"/>
-    <tableColumn id="9" name="解锁子条件数值2"/>
-    <tableColumn id="10" name="解锁子条件数值3"/>
-    <tableColumn id="11" name="解锁子条件数值4"/>
-    <tableColumn id="12" name="解锁子条件数值"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="限制条件id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="条件类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁子条件类型1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="解锁子条件类型2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="解锁子条件类型3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="解锁子条件类型4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="解锁子条件类型">
+      <calculatedColumnFormula>E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="解锁子条件数值1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="解锁子条件数值2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="解锁子条件数值3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="解锁子条件数值4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="解锁子条件数值">
+      <calculatedColumnFormula>J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1286,29 +691,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.9285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.8660714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7857142857143" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.25" style="1" customWidth="1"/>
-    <col min="10" max="13" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1071428571429" style="1" customWidth="1"/>
+    <col min="10" max="13" width="15.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1356,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:14">
+    <row r="2" spans="1:14" ht="142.5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -1382,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="1:14">
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:14">
       <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1465,7 +870,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:14">
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1490,16 +895,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:14">
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
         <v>-1</v>
@@ -1512,10 +917,10 @@
       </c>
       <c r="I7" s="19" t="str">
         <f>E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
-        <v>0,-1,-1,-1</v>
+        <v>1,-1,-1,-1</v>
       </c>
       <c r="J7" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
@@ -1528,10 +933,10 @@
       </c>
       <c r="N7" s="19" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
-        <v>10,0,0,0</v>
+        <v>0,0,0,0</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14">
       <c r="B8" s="9"/>
       <c r="C8" s="7">
         <v>2</v>
@@ -1540,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
         <v>-1</v>
@@ -1553,10 +958,10 @@
       </c>
       <c r="I8" s="20" t="str">
         <f>E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
-        <v>0,-1,-1,-1</v>
+        <v>2,-1,-1,-1</v>
       </c>
       <c r="J8" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
@@ -1569,12 +974,53 @@
       </c>
       <c r="N8" s="20" t="str">
         <f>J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
-        <v>10,0,0,0</v>
+        <v>0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="20" t="str">
+        <f>E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
+        <v>1,-1,-1,-1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20" t="str">
+        <f>J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9</f>
+        <v>0,0,0,0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
